--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2067771.101406132</v>
+        <v>2174425.25308947</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5420094.511701921</v>
+        <v>5727019.948872602</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>134.9454583355738</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>308.5678041547425</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -753,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>142.703271554329</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>31.07910906494322</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -908,13 +910,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>242.1763455484934</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.7413449278561</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>134.9358596711118</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.1321191269751</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>268.658815481797</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.62483121292166</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>87.07182642692658</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>322.6172958455055</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475796</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2737862279055</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>277.7852672841134</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>184.6723321165224</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>133.9986524434723</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>6.133574646795341</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>52.5117099198479</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3190,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>109.1426757626846</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775232</v>
       </c>
       <c r="U37" t="n">
-        <v>273.4286173226611</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>20.56754178381327</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>249.4112747763479</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F41" t="n">
-        <v>324.0085933294891</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>105.2666242787484</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>187.5234134555188</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3980,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.630079656155</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.73496192349839</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>47.90525155920262</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,13 +4194,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>280.9390873188491</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1358.178842766052</v>
+        <v>545.2299034413993</v>
       </c>
       <c r="C2" t="n">
-        <v>1324.07677398988</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.207393204728</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4328,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4337,43 +4339,43 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.683728870499</v>
+        <v>975.7751935862497</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.438009210556</v>
+        <v>971.5294739263071</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.4376660667899</v>
+        <v>706.4661538926848</v>
       </c>
       <c r="C4" t="n">
-        <v>369.2929473250434</v>
+        <v>706.4661538926848</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250434</v>
+        <v>540.5881610942075</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>370.8301573449448</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4492,46 +4494,46 @@
         <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>933.8858245785766</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>706.4661538926848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.3539213779165</v>
+        <v>863.5525504725379</v>
       </c>
       <c r="C5" t="n">
-        <v>520.7722471151849</v>
+        <v>425.4100776559612</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>393.5406968708098</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>1958.677925847745</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1714.05535458664</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1309.199899997674</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>890.0574365769842</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.653491862824</v>
+        <v>885.8117169170416</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>763.7330636584709</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="C7" t="n">
-        <v>763.7330636584709</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>597.8550708599936</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.377960771849</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.363107729937</v>
+        <v>1566.039109189701</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.97135306335</v>
+        <v>1320.647354523113</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.5516823774581</v>
+        <v>1093.227683837222</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1114.066895752005</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1079.964826975833</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1048.095446190681</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>614.3207013489764</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>453.9965675465116</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>453.9965675465116</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>874.0494664914149</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1294.102365436318</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1294.102365436318</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1294.102365436318</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>814.7949675563824</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>648.9169747579051</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>479.1589710086424</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>302.4519169703985</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>136.8606419962262</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>136.8606419962262</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1270.644793662241</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>998.6183892485328</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>998.6183892485328</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.612871192998</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1127.470398376422</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>691.560613550866</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>365.6845571412646</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>365.6845571412646</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.595264158347</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M11" t="n">
-        <v>2395.798227652155</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>3338.001191145962</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3338.001191145962</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3338.001191145962</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3586.813433454082</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3224.196483387908</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2819.341028798942</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2400.198565378253</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1991.912441677906</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>2543.35618293017</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>2448.265894076723</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>2354.145479403677</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>2270.761641019838</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>2185.376551286022</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>2143.640899102235</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>2143.640899102235</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>2468.199224068447</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>2468.199224068447</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>3148.968943854628</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q12" t="n">
-        <v>3689.707882486704</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>3806.880660581043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>3743.425223029426</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>3613.246579360028</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>3436.910032359996</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>3237.792514421996</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>3052.46976015519</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>2897.60232439407</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>2771.116545173291</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>784.5962218772752</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>784.5962218772752</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>784.5962218772752</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>356.7287922864829</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>356.7287922864829</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>802.4814301168919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>802.4814301168919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>802.4814301168919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>802.4814301168919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>802.4814301168919</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,16 +5779,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,7 +5831,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>3405.682560498801</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>3233.120848982026</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>3597.501179217788</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5977,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6075,19 +6077,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>287.8657185439749</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6177,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6312,19 +6314,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3184.458419759167</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>3011.896708242392</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>2846.018715443915</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E28" t="n">
-        <v>2676.260711694652</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>2499.553657656408</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244342</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>3849.088463830633</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.696709164046</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.277038478154</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2239.339682523233</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1952.384174393664</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6838,19 +6840,19 @@
         <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>617.7751448769883</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>617.7751448769883</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>441.0680908387445</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6926,61 +6928,61 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>2528.913654892427</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>3417.209496257025</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7005,31 +7007,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
         <v>1648.327823655249</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573035</v>
+        <v>3409.849289273892</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>3237.287577757117</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>3071.409584958639</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>2901.651581209377</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>2724.944527171133</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>2724.944527171133</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636183</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800873</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372008</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139969</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320882</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478526</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704309</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.84923867465</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244354</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>4932.382823542351</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>4911.89424663553</v>
       </c>
       <c r="U37" t="n">
-        <v>2037.609112501888</v>
+        <v>4633.461245888636</v>
       </c>
       <c r="V37" t="n">
-        <v>1750.653604372319</v>
+        <v>4346.505737759067</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.62719995861</v>
+        <v>4074.479333345358</v>
       </c>
       <c r="X37" t="n">
-        <v>1233.235445292023</v>
+        <v>3829.087578678771</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>3601.667907992879</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7156,67 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4400.966644204578</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4947.465430163174</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136698</v>
@@ -7242,37 +7244,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="M39" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.246023098982</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1273.103550282406</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>837.1937654568501</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>403.4190206151453</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162089</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162089</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>511.3923006645388</v>
+        <v>1431.851786213078</v>
       </c>
       <c r="M41" t="n">
-        <v>511.3923006645388</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2964.974180704926</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>2964.974180704926</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>2545.831717284237</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2137.54559358389</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.195773823502</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067273</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D43" t="n">
-        <v>816.75606950825</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1819.825817894969</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1819.825817894969</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1574.434063228381</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1347.01439254249</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2066.450246394214</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1628.307773577638</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.595264158347</v>
+        <v>1431.851786213079</v>
       </c>
       <c r="M44" t="n">
-        <v>2395.798227652156</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>3338.001191145964</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3338.001191145964</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P44" t="n">
-        <v>3338.001191145964</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581044</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T44" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U44" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3327.591130771099</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2922.735676182133</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2503.593212761444</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2492.749816879122</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1031.023205295821</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1450.2614947007</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.841824014808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>624.8248713018625</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,16 +8382,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191087</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>407.1525905495951</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452607</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452606</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>302.7529340222463</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>687.6461816022029</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>379.5169886652537</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>677.9686009664961</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>187.4796750234296</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-6.040902026760094e-13</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>897.2685266309072</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10832,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>167.2490741169786</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>446.2295987639958</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.59188538505282</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>817.497647351161</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>60.59188538505373</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.6156256920003</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>106.8197015477823</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.28436272291295</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>3.14686572942378</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.453585727102507</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>84.63380825304901</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>141.6500182959534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.0118993322374</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>223.1369608195778</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>54.79268646174602</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.136960819577</v>
       </c>
       <c r="U37" t="n">
-        <v>2.220053416764586</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>143.6516710866792</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>34.67467827192598</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>99.58016196539518</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>84.63380825304887</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>96.562539592755</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>393.4683005398447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>122.9308428424047</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465710.7354844338</v>
+        <v>478393.057907709</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465710.7354844338</v>
+        <v>480676.5379536346</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>405983.5712304585</v>
+        <v>502119.3063881419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>405983.5712304584</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502119.3063881421</v>
+        <v>502119.3063881422</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>502119.3063881422</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>502119.306388142</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405983.5712304585</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>405983.5712304586</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>509339.9538958882</v>
       </c>
       <c r="C2" t="n">
+        <v>509339.9538958881</v>
+      </c>
+      <c r="D2" t="n">
         <v>509339.9538958882</v>
       </c>
-      <c r="D2" t="n">
-        <v>509339.9538958881</v>
-      </c>
       <c r="E2" t="n">
-        <v>404686.1866808238</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
         <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="L2" t="n">
         <v>500514.7049304846</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="N2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="O2" t="n">
+        <v>500514.7049304848</v>
+      </c>
+      <c r="P2" t="n">
         <v>500514.7049304847</v>
-      </c>
-      <c r="M2" t="n">
-        <v>500514.7049304848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>500514.7049304848</v>
-      </c>
-      <c r="O2" t="n">
-        <v>404686.1866808239</v>
-      </c>
-      <c r="P2" t="n">
-        <v>404686.186680824</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877238</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924763</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
-        <v>65847.15553423097</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="L4" t="n">
         <v>81439.5714690428</v>
       </c>
-      <c r="L4" t="n">
-        <v>81439.57146904283</v>
-      </c>
       <c r="M4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904276</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904276</v>
       </c>
       <c r="P4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.5714690428</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579255</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>101762.8922570892</v>
       </c>
       <c r="C6" t="n">
-        <v>243954.1929167991</v>
+        <v>199323.2064003932</v>
       </c>
       <c r="D6" t="n">
-        <v>243954.192916799</v>
+        <v>258336.7455245892</v>
       </c>
       <c r="E6" t="n">
-        <v>123497.150183657</v>
+        <v>159001.7856345996</v>
       </c>
       <c r="F6" t="n">
-        <v>280974.445105761</v>
+        <v>341356.8948556494</v>
       </c>
       <c r="G6" t="n">
-        <v>251857.0862492804</v>
+        <v>341356.8948556493</v>
       </c>
       <c r="H6" t="n">
         <v>341356.8948556494</v>
       </c>
       <c r="I6" t="n">
-        <v>341356.8948556495</v>
+        <v>341356.8948556493</v>
       </c>
       <c r="J6" t="n">
         <v>230342.4295106592</v>
       </c>
       <c r="K6" t="n">
+        <v>288311.040216877</v>
+      </c>
+      <c r="L6" t="n">
+        <v>331964.5931290269</v>
+      </c>
+      <c r="M6" t="n">
+        <v>189156.7239176619</v>
+      </c>
+      <c r="N6" t="n">
+        <v>341356.8948556496</v>
+      </c>
+      <c r="O6" t="n">
+        <v>341356.8948556496</v>
+      </c>
+      <c r="P6" t="n">
         <v>341356.8948556493</v>
-      </c>
-      <c r="L6" t="n">
-        <v>341356.8948556493</v>
-      </c>
-      <c r="M6" t="n">
-        <v>209920.6476982299</v>
-      </c>
-      <c r="N6" t="n">
-        <v>341356.8948556494</v>
-      </c>
-      <c r="O6" t="n">
-        <v>280974.445105761</v>
-      </c>
-      <c r="P6" t="n">
-        <v>280974.4451057612</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>298.8155897528371</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3832346317399</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>28.13282284727831</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>143.8608744329181</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>116.8144350170184</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>184.4619175354869</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>54.96457286068539</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>3.174021242596268</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>154.9299398130873</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>5.14851852014975</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.0736475521062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>624.8248713018625</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191087</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>407.1525905495951</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452607</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452606</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>302.7529340222463</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>687.6461816022029</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>379.5169886652537</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,10 +36199,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,19 +36366,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>677.9686009664961</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>187.4796750234296</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-2.986857035790905e-13</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>897.2685266309072</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>167.2490741169786</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>446.2295987639958</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.59188538505282</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>817.497647351161</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>60.59188538505373</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.6156256920003</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174425.25308947</v>
+        <v>2173900.070720438</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.072591686</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5727019.948872602</v>
+        <v>5727019.948872601</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>134.9454583355738</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>392.0391472008533</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>31.07910906494322</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>215.473171336938</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>317.2778751268596</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>242.1763455484934</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.9358596711118</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>55.26522771132989</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1141,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>243.9738871485494</v>
       </c>
       <c r="F8" t="n">
-        <v>268.658815481797</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>82.62483121292166</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>119.9348501475796</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1663,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>69.4540573175256</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>184.6723321165224</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2010,10 +2010,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>64.90507698037604</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>133.9986524434723</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.133574646795341</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2715,13 +2715,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>39.5975448024402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C35" t="n">
         <v>433.761048088411</v>
@@ -3274,19 +3274,19 @@
         <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H35" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791314941</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655118</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T37" t="n">
-        <v>20.28369113775232</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H38" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791314941</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556932</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655118</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>20.56754178381327</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C41" t="n">
         <v>433.761048088411</v>
@@ -3748,19 +3748,19 @@
         <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H41" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791328545</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655118</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.2666242787484</v>
+        <v>46.24876144511784</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3951,7 +3951,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932899</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314864</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.630079656155</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>280.9390873188491</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545.2299034413993</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4369,13 +4369,13 @@
         <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>990.8772529665349</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X2" t="n">
-        <v>975.7751935862497</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.5294739263071</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>706.4661538926848</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C4" t="n">
-        <v>706.4661538926848</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>540.5881610942075</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>370.8301573449448</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.303983658873</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="W4" t="n">
-        <v>1179.277579245164</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="X4" t="n">
-        <v>933.8858245785766</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="Y4" t="n">
-        <v>706.4661538926848</v>
+        <v>774.5621248982375</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.5525504725379</v>
+        <v>863.0357172789458</v>
       </c>
       <c r="C5" t="n">
-        <v>425.4100776559612</v>
+        <v>828.9336485027732</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5406968708098</v>
+        <v>508.4509463544302</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087173</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131952</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1733.888642131952</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>2352.465264720795</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720795</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720795</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530728</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847745</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.05535458664</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.199899997674</v>
+        <v>2116.763874884889</v>
       </c>
       <c r="X5" t="n">
-        <v>890.0574365769842</v>
+        <v>1697.6214114642</v>
       </c>
       <c r="Y5" t="n">
-        <v>885.8117169170416</v>
+        <v>1289.335287763854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>956.9288356845833</v>
+        <v>614.4535569886689</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>441.8918454718938</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>276.0138526734165</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>106.2558489241538</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771849</v>
+        <v>2362.377960771853</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350304</v>
+        <v>2116.498514350308</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.065513603409</v>
+        <v>1838.065513603413</v>
       </c>
       <c r="V7" t="n">
-        <v>1838.065513603409</v>
+        <v>1551.110005473844</v>
       </c>
       <c r="W7" t="n">
-        <v>1566.039109189701</v>
+        <v>1279.083601060135</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.647354523113</v>
+        <v>1033.691846393548</v>
       </c>
       <c r="Y7" t="n">
-        <v>1093.227683837222</v>
+        <v>806.2721757076561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.066895752005</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>1079.964826975833</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D8" t="n">
-        <v>1048.095446190681</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E8" t="n">
-        <v>614.3207013489764</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1963.754649317545</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1544.612185896856</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1136.326062196509</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>987.3566790731575</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>814.7949675563824</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>648.9169747579051</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>479.1589710086424</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>302.4519169703985</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>136.8606419962262</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>136.8606419962262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1651.986723144624</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.594968478036</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1179.175297792145</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,7 +5047,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
         <v>2588.899621423627</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5284,31 +5284,31 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5317,7 +5317,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>875.8255515988633</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>703.2638400820882</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>537.3858472836109</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>367.6278435343481</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2648.764836721533</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2402.885390299988</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W16" t="n">
-        <v>1540.45559567033</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X16" t="n">
-        <v>1295.063841003742</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1067.64417031785</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>307.7236983989667</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>167.8215240893413</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5758,40 +5758,40 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3405.682560498801</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3233.120848982026</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>3067.242856183548</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3597.501179217788</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6077,19 +6077,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6302,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6542,10 +6542,10 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
         <v>1107.588885023173</v>
@@ -6703,19 +6703,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707797</v>
@@ -6943,43 +6943,43 @@
         <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681876</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892427</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257025</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.389162827331</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136698</v>
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7013,43 +7013,43 @@
         <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>287.8657185439752</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7058,10 +7058,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3409.849289273892</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C37" t="n">
-        <v>3237.287577757117</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D37" t="n">
-        <v>3071.409584958639</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E37" t="n">
-        <v>2901.651581209377</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F37" t="n">
-        <v>2724.944527171133</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171133</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636183</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800873</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372008</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139969</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320882</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478526</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704309</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.84923867465</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538982</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244354</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.382823542351</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T37" t="n">
-        <v>4911.89424663553</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U37" t="n">
-        <v>4633.461245888636</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V37" t="n">
-        <v>4346.505737759067</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W37" t="n">
-        <v>4074.479333345358</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X37" t="n">
-        <v>3829.087578678771</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y37" t="n">
-        <v>3601.667907992879</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707797</v>
@@ -7186,25 +7186,25 @@
         <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3572.656769371182</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P38" t="n">
-        <v>4400.966644204578</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q38" t="n">
-        <v>4947.465430163174</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
@@ -7216,7 +7216,7 @@
         <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136698</v>
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D39" t="n">
         <v>406.885835245268</v>
@@ -7250,43 +7250,43 @@
         <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T39" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V39" t="n">
         <v>1196.412455590541</v>
@@ -7295,10 +7295,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1036.216302815308</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C40" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707797</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771612</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004235</v>
+        <v>391.807784200425</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436411</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707797</v>
@@ -7417,46 +7417,46 @@
         <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>1431.851786213078</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
         <v>406.885835245268</v>
@@ -7511,19 +7511,19 @@
         <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7532,10 +7532,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.8255515988633</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>703.2638400820882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>537.3858472836109</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E43" t="n">
-        <v>367.6278435343481</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F43" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7599,22 +7599,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707797</v>
@@ -7654,10 +7654,10 @@
         <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1431.851786213079</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423629</v>
@@ -7681,19 +7681,19 @@
         <v>4809.322912595859</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7830,16 +7830,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
         <v>1889.413325832886</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>624.8248713018625</v>
+        <v>72.805895586112</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684631</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191087</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8695,10 +8695,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,22 +8932,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>301.546314668241</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,28 +9640,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>677.9686009664961</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10591,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>897.2685266309072</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>519.9105708963857</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>167.2490741169786</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>446.2295987639958</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>60.59188538505282</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>60.59188538505373</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.28436272291295</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>88.19489769745771</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>84.63380825304901</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>22.86827275269538</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>141.6500182959534</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.0118993322374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T37" t="n">
-        <v>223.136960819577</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.63380825304887</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>3.14686572942469</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>478393.057907709</v>
+        <v>478393.0579077092</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502119.3063881419</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502119.3063881422</v>
+        <v>502119.3063881421</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502119.3063881421</v>
+        <v>502119.306388142</v>
       </c>
     </row>
     <row r="14">
@@ -26319,43 +26319,43 @@
         <v>509339.9538958881</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.953895888</v>
       </c>
       <c r="E2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="G2" t="n">
         <v>500514.7049304848</v>
-      </c>
-      <c r="G2" t="n">
-        <v>500514.7049304846</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="K2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
         <v>500514.7049304849</v>
       </c>
       <c r="N2" t="n">
+        <v>500514.7049304848</v>
+      </c>
+      <c r="O2" t="n">
         <v>500514.7049304849</v>
       </c>
-      <c r="O2" t="n">
-        <v>500514.7049304848</v>
-      </c>
       <c r="P2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.767895016</v>
+        <v>66587.76789501634</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998293</v>
+        <v>11527.5955499826</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877238</v>
+        <v>53045.85463877265</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622443</v>
+        <v>9392.301726622178</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,7 +26420,7 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924763</v>
+        <v>171472.7657924761</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595585</v>
@@ -26429,13 +26429,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26447,19 +26447,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="M4" t="n">
         <v>81439.5714690428</v>
       </c>
-      <c r="M4" t="n">
-        <v>81439.57146904276</v>
-      </c>
       <c r="N4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904276</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904271</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26511,7 +26511,7 @@
         <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579255</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>101762.8922570892</v>
       </c>
       <c r="C6" t="n">
-        <v>199323.2064003932</v>
+        <v>199323.206400393</v>
       </c>
       <c r="D6" t="n">
         <v>258336.7455245892</v>
       </c>
       <c r="E6" t="n">
-        <v>159001.7856345996</v>
+        <v>158978.5612952171</v>
       </c>
       <c r="F6" t="n">
-        <v>341356.8948556494</v>
+        <v>341333.6705162669</v>
       </c>
       <c r="G6" t="n">
-        <v>341356.8948556493</v>
+        <v>341333.6705162668</v>
       </c>
       <c r="H6" t="n">
-        <v>341356.8948556494</v>
+        <v>341333.6705162668</v>
       </c>
       <c r="I6" t="n">
-        <v>341356.8948556493</v>
+        <v>341333.6705162668</v>
       </c>
       <c r="J6" t="n">
-        <v>230342.4295106592</v>
+        <v>230319.2051712766</v>
       </c>
       <c r="K6" t="n">
-        <v>288311.040216877</v>
+        <v>288287.8158774941</v>
       </c>
       <c r="L6" t="n">
-        <v>331964.5931290269</v>
+        <v>331941.3687896446</v>
       </c>
       <c r="M6" t="n">
-        <v>189156.7239176619</v>
+        <v>189133.4995782793</v>
       </c>
       <c r="N6" t="n">
-        <v>341356.8948556496</v>
+        <v>341333.6705162668</v>
       </c>
       <c r="O6" t="n">
-        <v>341356.8948556496</v>
+        <v>341333.670516267</v>
       </c>
       <c r="P6" t="n">
-        <v>341356.8948556493</v>
+        <v>341333.670516267</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768886</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>298.8155897528371</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>12.16411526248982</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>143.8608744329181</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>68.61278171133586</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>114.2728118504403</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>116.8144350170184</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.96457286068539</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>119.6747557865314</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>185.4631102447383</v>
       </c>
       <c r="F8" t="n">
-        <v>154.9299398130873</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.14851852014975</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.446170080239897e-12</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.456896825402509e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-8.887874563307766e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>624.8248713018625</v>
+        <v>72.805895586112</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684631</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191087</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35415,10 +35415,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,22 +35652,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,10 +36126,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>301.546314668241</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>677.9686009664961</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>897.2685266309072</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>519.9105708963857</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080414</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>167.2490741169786</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>446.2295987639958</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>60.59188538505282</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.8366918850629</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>60.59188538505373</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
